--- a/InetApp-Sprint11-tasks.xlsx
+++ b/InetApp-Sprint11-tasks.xlsx
@@ -4,20 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
+    <sheet name="Time sheet" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">general_report!$A$2:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Time sheet'!$A$2:$T$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
+  <si>
+    <t>Summary</t>
+  </si>
   <si>
     <t>Assignee</t>
   </si>
@@ -187,9 +193,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>[Parent ID] Task Summary</t>
-  </si>
-  <si>
     <t>Task ID</t>
   </si>
   <si>
@@ -266,6 +269,12 @@
   </si>
   <si>
     <t>Process HDD review notes by Mr. Lanckman and make necessary corrections in the HDD</t>
+  </si>
+  <si>
+    <t>Parent task ID</t>
+  </si>
+  <si>
+    <t>Task Summary</t>
   </si>
 </sst>
 </file>
@@ -826,7 +835,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -857,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1263,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1315,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>59</v>
@@ -1312,52 +1324,52 @@
         <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9">
         <f>K3/60/60</f>
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="11">
         <v>42098</v>
@@ -1373,26 +1385,26 @@
     </row>
     <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9">
         <f>K4/60/60</f>
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="11">
         <v>42098</v>
@@ -1408,26 +1420,26 @@
     </row>
     <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9">
         <f>K5/60/60</f>
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8">
@@ -1441,26 +1453,26 @@
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9">
         <f>K6/60/60</f>
         <v>3.5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="11">
         <v>42098</v>
@@ -1478,26 +1490,26 @@
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9">
         <f>K7/60/60</f>
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8">
@@ -1511,26 +1523,26 @@
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9">
         <f>K8/60/60</f>
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8">
@@ -1544,26 +1556,26 @@
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
         <f>K9/60/60</f>
         <v>7</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8">
@@ -1577,26 +1589,26 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9">
         <f>K10/60/60</f>
         <v>4</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
@@ -1610,26 +1622,26 @@
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9">
         <f>K11/60/60</f>
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8">
@@ -1645,26 +1657,26 @@
     </row>
     <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9">
         <f>K12/60/60</f>
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8">
@@ -1678,26 +1690,26 @@
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9">
         <f>K13/60/60</f>
         <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8">
@@ -1711,26 +1723,26 @@
     </row>
     <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="9">
         <f>K14/60/60</f>
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8">
@@ -1744,26 +1756,26 @@
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9">
         <f>K15/60/60</f>
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8">
@@ -1777,26 +1789,26 @@
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9">
         <f>K16/60/60</f>
         <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8">
@@ -1810,26 +1822,26 @@
     </row>
     <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="9">
         <f>K17/60/60</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8">
@@ -1843,26 +1855,26 @@
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9">
         <f>K18/60/60</f>
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8">
@@ -1876,10 +1888,10 @@
     </row>
     <row r="19" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9">
@@ -1887,13 +1899,13 @@
         <v>29.5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1904,15 +1916,15 @@
         <v>106200</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9">
@@ -1920,13 +1932,13 @@
         <v>10.041666666666666</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1935,15 +1947,15 @@
         <v>36150</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -1951,13 +1963,13 @@
         <v>26</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1966,15 +1978,15 @@
         <v>93600</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9">
@@ -1982,13 +1994,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1997,15 +2009,15 @@
         <v>68400</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9">
@@ -2013,13 +2025,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2028,15 +2040,15 @@
         <v>93600</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -2044,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2059,31 +2071,31 @@
         <v>54000</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="9">
         <f>K25/60/60</f>
         <v>4</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
@@ -2097,26 +2109,26 @@
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9">
         <f>K26/60/60</f>
         <v>2</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
@@ -2130,26 +2142,26 @@
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="9">
         <f>K27/60/60</f>
         <v>2</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
@@ -2163,26 +2175,26 @@
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="9">
         <f>K28/60/60</f>
         <v>0</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="11">
         <v>42098</v>
@@ -2200,26 +2212,26 @@
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9">
         <f>K29/60/60</f>
         <v>8</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8">
@@ -2233,26 +2245,26 @@
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="9">
         <f>K30/60/60</f>
         <v>6</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8">
@@ -2266,26 +2278,26 @@
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9">
         <f>K31/60/60</f>
         <v>2</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8">
@@ -2299,7 +2311,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2">
         <f>SUBTOTAL(9, D3:D31)</f>
@@ -2349,4 +2361,621 @@
   </headerFooter>
   <drawing r:id="rId30"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="20" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>42114</v>
+      </c>
+      <c r="F2" s="13">
+        <v>42115</v>
+      </c>
+      <c r="G2" s="13">
+        <v>42116</v>
+      </c>
+      <c r="H2" s="13">
+        <v>42117</v>
+      </c>
+      <c r="I2" s="13">
+        <v>42118</v>
+      </c>
+      <c r="J2" s="13">
+        <v>42119</v>
+      </c>
+      <c r="K2" s="13">
+        <v>42120</v>
+      </c>
+      <c r="L2" s="13">
+        <v>42121</v>
+      </c>
+      <c r="M2" s="13">
+        <v>42122</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42123</v>
+      </c>
+      <c r="O2" s="13">
+        <v>42124</v>
+      </c>
+      <c r="P2" s="13">
+        <v>42125</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>42126</v>
+      </c>
+      <c r="R2" s="13">
+        <v>42127</v>
+      </c>
+      <c r="S2" s="13">
+        <v>42128</v>
+      </c>
+      <c r="T2" s="13">
+        <v>42129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP($A3, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Organize the meeting with Harman Generic Browser responsibles</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>VLOOKUP($A3, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1555</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>VLOOKUP($A3, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP($A4, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Get application platform documented / get documentation</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>VLOOKUP($A4, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1514</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>VLOOKUP($A4, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP($A5, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>TRS/CRS - remove links to Procom</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>VLOOKUP($A5, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>VLOOKUP($A5, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP($A6, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Update TRS information for audio formats</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>VLOOKUP($A6, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>VLOOKUP($A6, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP($A7, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>HTML5 feature support for Browser</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>VLOOKUP($A7, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1555</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>VLOOKUP($A7, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP($A8, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Coyote - add test needs to TRS</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>VLOOKUP($A8, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1556</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>VLOOKUP($A8, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP($A9, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Estore - add test needs to TRS</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>VLOOKUP($A9, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1557</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>VLOOKUP($A9, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP($A10, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Application platform study</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>VLOOKUP($A10, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1514</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>VLOOKUP($A10, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP($A11, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Set "Affected Department", TBD, Complexity of Internet-Applicaiton TRS in DOORS</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>VLOOKUP($A11, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>VLOOKUP($A11, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Roman Nikitin</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP($A12, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Reduce set of used API calls only to those available at system level.</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>VLOOKUP($A12, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>VLOOKUP($A12, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP($A13, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Extend HDD with Browser description</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>VLOOKUP($A13, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1515</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>VLOOKUP($A13, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP($A14, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>analyse Presentation controller document from Browser</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>VLOOKUP($A14, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1555</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>VLOOKUP($A14, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP($A15, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>eStore: Check if all interactions with application platform/other parts of the system are available in the application platform specification</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>VLOOKUP($A15, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1557</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>VLOOKUP($A15, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP($A16, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>CRS editions, rephrasing and making the statesments clearer and more precise.</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>VLOOKUP($A16, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>VLOOKUP($A16, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP($A17, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Resolving IT related issues ( accounts, rights, access, etc.)</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>VLOOKUP($A17, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1514</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>VLOOKUP($A17, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP($A18, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Update TRS for Coyote to include Coyote Screens - Settings</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>VLOOKUP($A18, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1556</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>VLOOKUP($A18, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP($A19, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>TRS: Revise complexity, revise API calls with focus to CRS</v>
+      </c>
+      <c r="C19" s="8">
+        <f>VLOOKUP($A19, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>VLOOKUP($A19, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP($A20, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Get Application Platform documented</v>
+      </c>
+      <c r="C20" s="8">
+        <f>VLOOKUP($A20, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>VLOOKUP($A20, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP($A21, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>HDD Document: complete deployment sec, process review notes.</v>
+      </c>
+      <c r="C21" s="8">
+        <f>VLOOKUP($A21, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>VLOOKUP($A21, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP($A22, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Get Harman pres ctrl of Browser , interface understood.</v>
+      </c>
+      <c r="C22" s="8">
+        <f>VLOOKUP($A22, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>VLOOKUP($A22, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP($A23, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Coyote: update TRS and investigate, document test needs.</v>
+      </c>
+      <c r="C23" s="8">
+        <f>VLOOKUP($A23, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>VLOOKUP($A23, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP($A24, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>eStore: update TRS and investigate , document test needs.</v>
+      </c>
+      <c r="C24" s="8">
+        <f>VLOOKUP($A24, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP($A24, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP($A25, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Process HDD review notes by Mr. Lanckman and make necessary corrections in the HDD</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>VLOOKUP($A25, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1515</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>VLOOKUP($A25, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Roman Nikitin</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP($A26, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Conduct the HDD review with Mr. Lanckman</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>VLOOKUP($A26, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1515</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>VLOOKUP($A26, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP($A27, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Conduct TRS review with Mr. Lanckman</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP($A27, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>VLOOKUP($A27, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP($A28, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Add non-functional requirements (TRS)</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP($A28, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP($A28, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Roman Nikitin</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP($A29, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Extend / update HDD with Application framework description</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP($A29, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1515</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP($A29, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP($A30, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>Finalize Deployment section of the HDD</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP($A30, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1515</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP($A30, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Zolotykh Vladimir</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31, general_report!A31:L59, 2, FALSE)</f>
+        <v>Update initial chapters of TRS , DOORS</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>VLOOKUP($A31, general_report!$A$3:$L$31, 3, FALSE)</f>
+        <v>HTOYOTA-1513</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:T31"/>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1588"/>
+    <hyperlink ref="A26" r:id="rId2" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1587"/>
+    <hyperlink ref="A25" r:id="rId3" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1586"/>
+    <hyperlink ref="A24" r:id="rId4" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1557"/>
+    <hyperlink ref="A23" r:id="rId5" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1556"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1555"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1515"/>
+    <hyperlink ref="A20" r:id="rId8" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1514"/>
+    <hyperlink ref="A19" r:id="rId9" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1513"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1509"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1508"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1507"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1476"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1474"/>
+    <hyperlink ref="A13" r:id="rId15" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1473"/>
+    <hyperlink ref="A12" r:id="rId16" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1471"/>
+    <hyperlink ref="A11" r:id="rId17" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1403"/>
+    <hyperlink ref="A10" r:id="rId18" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1371"/>
+    <hyperlink ref="A9" r:id="rId19" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1290"/>
+    <hyperlink ref="A8" r:id="rId20" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1289"/>
+    <hyperlink ref="A7" r:id="rId21" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1288"/>
+    <hyperlink ref="A6" r:id="rId22" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1281"/>
+    <hyperlink ref="A5" r:id="rId23" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1143"/>
+    <hyperlink ref="A4" r:id="rId24" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1086"/>
+    <hyperlink ref="A3" r:id="rId25" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1085"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://adc.luxoft.com/jira/browse/HTOYOTA-885"/>
+    <hyperlink ref="A30" r:id="rId27" display="https://adc.luxoft.com/jira/browse/HTOYOTA-861"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://adc.luxoft.com/jira/browse/HTOYOTA-748"/>
+    <hyperlink ref="A28" r:id="rId29" display="https://adc.luxoft.com/jira/browse/HTOYOTA-717"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InetApp-Sprint11-tasks.xlsx
+++ b/InetApp-Sprint11-tasks.xlsx
@@ -2368,15 +2368,16 @@
   <dimension ref="A2:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
-    <col min="3" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="20" width="4" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,15 +2444,15 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP($A3, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Organize the meeting with Harman Generic Browser responsibles</v>
-      </c>
-      <c r="C3" s="8" t="str">
+        <v>TRS: Revise complexity, revise API calls with focus to CRS</v>
+      </c>
+      <c r="C3" s="8">
         <f>VLOOKUP($A3, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1555</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>VLOOKUP($A3, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2460,15 +2461,15 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP($A4, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Get application platform documented / get documentation</v>
-      </c>
-      <c r="C4" s="8" t="str">
+        <v>Get Application Platform documented</v>
+      </c>
+      <c r="C4" s="8">
         <f>VLOOKUP($A4, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1514</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>VLOOKUP($A4, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2477,15 +2478,15 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP($A5, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>TRS/CRS - remove links to Procom</v>
-      </c>
-      <c r="C5" s="8" t="str">
+        <v>HDD Document: complete deployment sec, process review notes.</v>
+      </c>
+      <c r="C5" s="8">
         <f>VLOOKUP($A5, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1513</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>VLOOKUP($A5, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2494,32 +2495,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP($A6, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Update TRS information for audio formats</v>
-      </c>
-      <c r="C6" s="8" t="str">
+        <v>Get Harman pres ctrl of Browser , interface understood.</v>
+      </c>
+      <c r="C6" s="8">
         <f>VLOOKUP($A6, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1513</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8" t="str">
         <f>VLOOKUP($A6, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
+        <v>Zolotykh Vladimir</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP($A7, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>HTML5 feature support for Browser</v>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>Coyote: update TRS and investigate, document test needs.</v>
+      </c>
+      <c r="C7" s="8">
         <f>VLOOKUP($A7, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1555</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>VLOOKUP($A7, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2528,53 +2529,53 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP($A8, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Coyote - add test needs to TRS</v>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>eStore: update TRS and investigate , document test needs.</v>
+      </c>
+      <c r="C8" s="8">
         <f>VLOOKUP($A8, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1556</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>VLOOKUP($A8, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
+        <v>Zolotykh Vladimir</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP($A9, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Estore - add test needs to TRS</v>
+        <v>TRS/CRS - remove links to Procom</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>VLOOKUP($A9, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1557</v>
+        <v>HTOYOTA-1513</v>
       </c>
       <c r="D9" s="8" t="str">
         <f>VLOOKUP($A9, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
+        <v>Zolotykh Vladimir</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP($A10, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Application platform study</v>
+        <v>Update TRS information for audio formats</v>
       </c>
       <c r="C10" s="8" t="str">
         <f>VLOOKUP($A10, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1514</v>
+        <v>HTOYOTA-1513</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>VLOOKUP($A10, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Zolotykh Vladimir</v>
+        <v>Dan Sava</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2613,15 +2614,15 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP($A13, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Extend HDD with Browser description</v>
+        <v>CRS editions, rephrasing and making the statesments clearer and more precise.</v>
       </c>
       <c r="C13" s="8" t="str">
         <f>VLOOKUP($A13, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1515</v>
+        <v>HTOYOTA-1513</v>
       </c>
       <c r="D13" s="8" t="str">
         <f>VLOOKUP($A13, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2630,15 +2631,15 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP($A14, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>analyse Presentation controller document from Browser</v>
+        <v>Conduct TRS review with Mr. Lanckman</v>
       </c>
       <c r="C14" s="8" t="str">
         <f>VLOOKUP($A14, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1555</v>
+        <v>HTOYOTA-1513</v>
       </c>
       <c r="D14" s="8" t="str">
         <f>VLOOKUP($A14, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2647,45 +2648,42 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP($A15, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>eStore: Check if all interactions with application platform/other parts of the system are available in the application platform specification</v>
+        <v>Add non-functional requirements (TRS)</v>
       </c>
       <c r="C15" s="8" t="str">
         <f>VLOOKUP($A15, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1557</v>
+        <v>HTOYOTA-1513</v>
       </c>
       <c r="D15" s="8" t="str">
         <f>VLOOKUP($A15, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
+        <v>Roman Nikitin</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B16" t="str">
-        <f>VLOOKUP($A16, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>CRS editions, rephrasing and making the statesments clearer and more precise.</v>
+        <f>VLOOKUP(A16, general_report!A31:L59, 2, FALSE)</f>
+        <v>Update initial chapters of TRS , DOORS</v>
       </c>
       <c r="C16" s="8" t="str">
         <f>VLOOKUP($A16, general_report!$A$3:$L$31, 3, FALSE)</f>
         <v>HTOYOTA-1513</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f>VLOOKUP($A16, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
-      </c>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP($A17, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Resolving IT related issues ( accounts, rights, access, etc.)</v>
+        <v>Get application platform documented / get documentation</v>
       </c>
       <c r="C17" s="8" t="str">
         <f>VLOOKUP($A17, general_report!$A$3:$L$31, 3, FALSE)</f>
@@ -2698,32 +2696,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP($A18, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Update TRS for Coyote to include Coyote Screens - Settings</v>
+        <v>Application platform study</v>
       </c>
       <c r="C18" s="8" t="str">
         <f>VLOOKUP($A18, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1556</v>
+        <v>HTOYOTA-1514</v>
       </c>
       <c r="D18" s="8" t="str">
         <f>VLOOKUP($A18, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Dan Sava</v>
+        <v>Zolotykh Vladimir</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP($A19, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>TRS: Revise complexity, revise API calls with focus to CRS</v>
-      </c>
-      <c r="C19" s="8">
+        <v>Resolving IT related issues ( accounts, rights, access, etc.)</v>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>VLOOKUP($A19, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1514</v>
       </c>
       <c r="D19" s="8" t="str">
         <f>VLOOKUP($A19, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2732,49 +2730,49 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP($A20, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Get Application Platform documented</v>
-      </c>
-      <c r="C20" s="8">
+        <v>Extend HDD with Browser description</v>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>VLOOKUP($A20, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1515</v>
       </c>
       <c r="D20" s="8" t="str">
         <f>VLOOKUP($A20, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Zolotykh Vladimir</v>
+        <v>Dan Sava</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP($A21, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>HDD Document: complete deployment sec, process review notes.</v>
-      </c>
-      <c r="C21" s="8">
+        <v>Process HDD review notes by Mr. Lanckman and make necessary corrections in the HDD</v>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>VLOOKUP($A21, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1515</v>
       </c>
       <c r="D21" s="8" t="str">
         <f>VLOOKUP($A21, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Zolotykh Vladimir</v>
+        <v>Roman Nikitin</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP($A22, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Get Harman pres ctrl of Browser , interface understood.</v>
-      </c>
-      <c r="C22" s="8">
+        <v>Conduct the HDD review with Mr. Lanckman</v>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>VLOOKUP($A22, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1515</v>
       </c>
       <c r="D22" s="8" t="str">
         <f>VLOOKUP($A22, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2783,32 +2781,32 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP($A23, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Coyote: update TRS and investigate, document test needs.</v>
-      </c>
-      <c r="C23" s="8">
+        <v>Extend / update HDD with Application framework description</v>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>VLOOKUP($A23, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1515</v>
       </c>
       <c r="D23" s="8" t="str">
         <f>VLOOKUP($A23, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Zolotykh Vladimir</v>
+        <v>Dan Sava</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP($A24, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>eStore: update TRS and investigate , document test needs.</v>
-      </c>
-      <c r="C24" s="8">
+        <v>Finalize Deployment section of the HDD</v>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>VLOOKUP($A24, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>0</v>
+        <v>HTOYOTA-1515</v>
       </c>
       <c r="D24" s="8" t="str">
         <f>VLOOKUP($A24, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2817,32 +2815,32 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP($A25, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Process HDD review notes by Mr. Lanckman and make necessary corrections in the HDD</v>
+        <v>Organize the meeting with Harman Generic Browser responsibles</v>
       </c>
       <c r="C25" s="8" t="str">
         <f>VLOOKUP($A25, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1515</v>
+        <v>HTOYOTA-1555</v>
       </c>
       <c r="D25" s="8" t="str">
         <f>VLOOKUP($A25, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Roman Nikitin</v>
+        <v>Zolotykh Vladimir</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP($A26, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Conduct the HDD review with Mr. Lanckman</v>
+        <v>HTML5 feature support for Browser</v>
       </c>
       <c r="C26" s="8" t="str">
         <f>VLOOKUP($A26, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1515</v>
+        <v>HTOYOTA-1555</v>
       </c>
       <c r="D26" s="8" t="str">
         <f>VLOOKUP($A26, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2851,15 +2849,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP($A27, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Conduct TRS review with Mr. Lanckman</v>
+        <v>analyse Presentation controller document from Browser</v>
       </c>
       <c r="C27" s="8" t="str">
         <f>VLOOKUP($A27, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1513</v>
+        <v>HTOYOTA-1555</v>
       </c>
       <c r="D27" s="8" t="str">
         <f>VLOOKUP($A27, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2868,32 +2866,32 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP($A28, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Add non-functional requirements (TRS)</v>
+        <v>Coyote - add test needs to TRS</v>
       </c>
       <c r="C28" s="8" t="str">
         <f>VLOOKUP($A28, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1513</v>
+        <v>HTOYOTA-1556</v>
       </c>
       <c r="D28" s="8" t="str">
         <f>VLOOKUP($A28, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Roman Nikitin</v>
+        <v>Dan Sava</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP($A29, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Extend / update HDD with Application framework description</v>
+        <v>Update TRS for Coyote to include Coyote Screens - Settings</v>
       </c>
       <c r="C29" s="8" t="str">
         <f>VLOOKUP($A29, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1515</v>
+        <v>HTOYOTA-1556</v>
       </c>
       <c r="D29" s="8" t="str">
         <f>VLOOKUP($A29, general_report!$A$3:$L$31, 5, FALSE)</f>
@@ -2902,67 +2900,74 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP($A30, general_report!$A$3:$L$31, 2, FALSE)</f>
-        <v>Finalize Deployment section of the HDD</v>
+        <v>Estore - add test needs to TRS</v>
       </c>
       <c r="C30" s="8" t="str">
         <f>VLOOKUP($A30, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1515</v>
+        <v>HTOYOTA-1557</v>
       </c>
       <c r="D30" s="8" t="str">
         <f>VLOOKUP($A30, general_report!$A$3:$L$31, 5, FALSE)</f>
-        <v>Zolotykh Vladimir</v>
+        <v>Dan Sava</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B31" t="str">
-        <f>VLOOKUP(A31, general_report!A31:L59, 2, FALSE)</f>
-        <v>Update initial chapters of TRS , DOORS</v>
+        <f>VLOOKUP($A31, general_report!$A$3:$L$31, 2, FALSE)</f>
+        <v>eStore: Check if all interactions with application platform/other parts of the system are available in the application platform specification</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>VLOOKUP($A31, general_report!$A$3:$L$31, 3, FALSE)</f>
-        <v>HTOYOTA-1513</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>HTOYOTA-1557</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f>VLOOKUP($A31, general_report!$A$3:$L$31, 5, FALSE)</f>
+        <v>Dan Sava</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T31"/>
+  <autoFilter ref="A2:T31">
+    <sortState ref="A3:T31">
+      <sortCondition ref="C2:C31"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1588"/>
-    <hyperlink ref="A26" r:id="rId2" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1587"/>
-    <hyperlink ref="A25" r:id="rId3" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1586"/>
-    <hyperlink ref="A24" r:id="rId4" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1557"/>
-    <hyperlink ref="A23" r:id="rId5" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1556"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1555"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1515"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1514"/>
-    <hyperlink ref="A19" r:id="rId9" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1513"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1509"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1508"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1507"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1476"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1474"/>
-    <hyperlink ref="A13" r:id="rId15" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1473"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1588"/>
+    <hyperlink ref="A22" r:id="rId2" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1587"/>
+    <hyperlink ref="A21" r:id="rId3" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1586"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1557"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1556"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1555"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1515"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1514"/>
+    <hyperlink ref="A3" r:id="rId9" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1513"/>
+    <hyperlink ref="A29" r:id="rId10" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1509"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1508"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1507"/>
+    <hyperlink ref="A31" r:id="rId13" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1476"/>
+    <hyperlink ref="A27" r:id="rId14" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1474"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1473"/>
     <hyperlink ref="A12" r:id="rId16" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1471"/>
     <hyperlink ref="A11" r:id="rId17" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1403"/>
-    <hyperlink ref="A10" r:id="rId18" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1371"/>
-    <hyperlink ref="A9" r:id="rId19" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1290"/>
-    <hyperlink ref="A8" r:id="rId20" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1289"/>
-    <hyperlink ref="A7" r:id="rId21" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1288"/>
-    <hyperlink ref="A6" r:id="rId22" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1281"/>
-    <hyperlink ref="A5" r:id="rId23" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1143"/>
-    <hyperlink ref="A4" r:id="rId24" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1086"/>
-    <hyperlink ref="A3" r:id="rId25" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1085"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://adc.luxoft.com/jira/browse/HTOYOTA-885"/>
-    <hyperlink ref="A30" r:id="rId27" display="https://adc.luxoft.com/jira/browse/HTOYOTA-861"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://adc.luxoft.com/jira/browse/HTOYOTA-748"/>
-    <hyperlink ref="A28" r:id="rId29" display="https://adc.luxoft.com/jira/browse/HTOYOTA-717"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1371"/>
+    <hyperlink ref="A30" r:id="rId19" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1290"/>
+    <hyperlink ref="A28" r:id="rId20" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1289"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1288"/>
+    <hyperlink ref="A10" r:id="rId22" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1281"/>
+    <hyperlink ref="A9" r:id="rId23" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1143"/>
+    <hyperlink ref="A17" r:id="rId24" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1086"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://adc.luxoft.com/jira/browse/HTOYOTA-1085"/>
+    <hyperlink ref="A16" r:id="rId26" display="https://adc.luxoft.com/jira/browse/HTOYOTA-885"/>
+    <hyperlink ref="A24" r:id="rId27" display="https://adc.luxoft.com/jira/browse/HTOYOTA-861"/>
+    <hyperlink ref="A23" r:id="rId28" display="https://adc.luxoft.com/jira/browse/HTOYOTA-748"/>
+    <hyperlink ref="A15" r:id="rId29" display="https://adc.luxoft.com/jira/browse/HTOYOTA-717"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
